--- a/Metatable_Bedree et al.xlsx
+++ b/Metatable_Bedree et al.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/516a5ac9cc24ebb0/All Files 3/Manuscripts/NASA Manuscripts/Version 7/Metatable for Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE7D78A-86C9-4300-BC26-2B1819175350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{7BE7D78A-86C9-4300-BC26-2B1819175350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760E05D2-B613-47EC-B93A-50F47BFAC073}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{C47E064F-4AFA-4955-BC29-2C94755D15C0}"/>
+    <workbookView minimized="1" xWindow="6150" yWindow="6120" windowWidth="10800" windowHeight="6000" xr2:uid="{C47E064F-4AFA-4955-BC29-2C94755D15C0}"/>
   </bookViews>
   <sheets>
     <sheet name="16S rRNA and WGS Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="398">
   <si>
     <t>X204.014D.final</t>
   </si>
@@ -1069,6 +1068,165 @@
   </si>
   <si>
     <t>Figure 2; Figure 4</t>
+  </si>
+  <si>
+    <t>WGS Metadata File #</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>359591_S5</t>
+  </si>
+  <si>
+    <t>359589_S3</t>
+  </si>
+  <si>
+    <t>359595_S9</t>
+  </si>
+  <si>
+    <t>359587_S1</t>
+  </si>
+  <si>
+    <t>359592_S6</t>
+  </si>
+  <si>
+    <t>359594_S8</t>
+  </si>
+  <si>
+    <t>359588_S2</t>
+  </si>
+  <si>
+    <t>359590_S4</t>
+  </si>
+  <si>
+    <t>359596_S10</t>
+  </si>
+  <si>
+    <t>359593_S7</t>
+  </si>
+  <si>
+    <t>359602_S16</t>
+  </si>
+  <si>
+    <t>359603_S17</t>
+  </si>
+  <si>
+    <t>359599_S13</t>
+  </si>
+  <si>
+    <t>359606_S20</t>
+  </si>
+  <si>
+    <t>359598_S12</t>
+  </si>
+  <si>
+    <t>359605_S19</t>
+  </si>
+  <si>
+    <t>359600_S14</t>
+  </si>
+  <si>
+    <t>359601_S15</t>
+  </si>
+  <si>
+    <t>359597_S11</t>
+  </si>
+  <si>
+    <t>359604_S18</t>
+  </si>
+  <si>
+    <t>Metabolomics Sample ID</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1493,13 +1651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D3DACB-2F69-4996-855A-D188EB6AAEF2}">
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1507,24 +1665,25 @@
     <col min="1" max="1" width="16.73046875" customWidth="1"/>
     <col min="2" max="2" width="15.265625" customWidth="1"/>
     <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.73046875" customWidth="1"/>
-    <col min="13" max="13" width="8.86328125" style="10"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.59765625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="13.1328125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="10.3984375" customWidth="1"/>
+    <col min="4" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="17.73046875" customWidth="1"/>
+    <col min="15" max="15" width="8.86328125" style="10"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="13.1328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>336</v>
       </c>
@@ -1534,11 +1693,11 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -1549,8 +1708,10 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>313</v>
       </c>
@@ -1564,51 +1725,57 @@
         <v>170</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1621,29 +1788,35 @@
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>328</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1656,29 +1829,35 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>328</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1691,29 +1870,35 @@
       <c r="D5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>328</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="S5" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1726,29 +1911,35 @@
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>328</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1761,29 +1952,35 @@
       <c r="D7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>328</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1796,29 +1993,35 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>328</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="S8" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1831,29 +2034,35 @@
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>328</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1866,29 +2075,35 @@
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>328</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1901,29 +2116,35 @@
       <c r="D11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="Q11" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>328</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="S11" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1936,29 +2157,35 @@
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>328</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1971,29 +2198,35 @@
       <c r="D13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="Q13" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>328</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="S13" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2006,29 +2239,35 @@
       <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="Q14" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>328</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2041,29 +2280,35 @@
       <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>328</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -2076,29 +2321,35 @@
       <c r="D16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>328</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="S16" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2111,29 +2362,35 @@
       <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>328</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -2146,29 +2403,35 @@
       <c r="D18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>328</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -2181,29 +2444,35 @@
       <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="Q19" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>328</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -2216,29 +2485,35 @@
       <c r="D20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>328</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="S20" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -2251,29 +2526,35 @@
       <c r="D21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="Q21" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>328</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2286,29 +2567,35 @@
       <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O22" s="10" t="s">
+      <c r="Q22" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>328</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="S22" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -2321,26 +2608,32 @@
       <c r="D23" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>314</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>325</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -2353,26 +2646,32 @@
       <c r="D24" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>314</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>325</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -2385,26 +2684,32 @@
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>314</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>325</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -2417,26 +2722,32 @@
       <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>314</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>325</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -2449,26 +2760,32 @@
       <c r="D27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>314</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>325</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -2481,26 +2798,32 @@
       <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>314</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>325</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -2513,26 +2836,32 @@
       <c r="D29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>314</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>325</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -2545,26 +2874,32 @@
       <c r="D30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>314</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>325</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
@@ -2577,26 +2912,32 @@
       <c r="D31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>314</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>325</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -2609,26 +2950,32 @@
       <c r="D32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>314</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>325</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
@@ -2641,29 +2988,35 @@
       <c r="D33" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>314</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="O33" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>325</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="Q33" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
@@ -2676,29 +3029,35 @@
       <c r="D34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>314</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="O34" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>325</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="Q34" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>106</v>
       </c>
@@ -2711,29 +3070,35 @@
       <c r="D35" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>314</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="O35" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>325</v>
       </c>
-      <c r="O35" s="10" t="s">
+      <c r="Q35" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>111</v>
       </c>
@@ -2746,29 +3111,35 @@
       <c r="D36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>314</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="O36" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>325</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="Q36" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>116</v>
       </c>
@@ -2781,29 +3152,35 @@
       <c r="D37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>314</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="O37" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>325</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="Q37" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -2816,29 +3193,35 @@
       <c r="D38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>314</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="O38" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>325</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="Q38" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>126</v>
       </c>
@@ -2851,29 +3234,35 @@
       <c r="D39" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>314</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="O39" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>325</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="Q39" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>130</v>
       </c>
@@ -2886,29 +3275,35 @@
       <c r="D40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>314</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="O40" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>325</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="Q40" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>135</v>
       </c>
@@ -2921,29 +3316,35 @@
       <c r="D41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>314</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="O41" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>325</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="Q41" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>140</v>
       </c>
@@ -2956,29 +3357,35 @@
       <c r="D42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>314</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="O42" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>325</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="Q42" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>33</v>
       </c>
@@ -2991,23 +3398,29 @@
       <c r="D43" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="K43" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R43" t="s">
+      <c r="T43" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
@@ -3020,23 +3433,29 @@
       <c r="D44" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="K44" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R44" t="s">
+      <c r="T44" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
@@ -3049,23 +3468,29 @@
       <c r="D45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -3078,23 +3503,29 @@
       <c r="D46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="K46" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R46" t="s">
+      <c r="T46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>40</v>
       </c>
@@ -3107,23 +3538,29 @@
       <c r="D47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="K47" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R47" t="s">
+      <c r="T47" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -3136,23 +3573,29 @@
       <c r="D48" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="K48" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R48" t="s">
+      <c r="T48" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -3165,23 +3608,29 @@
       <c r="D49" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R49" t="s">
+      <c r="T49" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
@@ -3194,23 +3643,29 @@
       <c r="D50" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="K50" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R50" t="s">
+      <c r="T50" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -3223,23 +3678,29 @@
       <c r="D51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="K51" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R51" t="s">
+      <c r="T51" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
@@ -3252,23 +3713,29 @@
       <c r="D52" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="K52" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="R52" t="s">
+      <c r="T52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>145</v>
       </c>
@@ -3281,26 +3748,32 @@
       <c r="D53" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="K53" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="O53" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q53" s="10" t="s">
+      <c r="S53" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>147</v>
       </c>
@@ -3313,26 +3786,32 @@
       <c r="D54" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="K54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M54" s="10" t="s">
+      <c r="O54" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q54" s="10" t="s">
+      <c r="S54" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>149</v>
       </c>
@@ -3345,26 +3824,32 @@
       <c r="D55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="O55" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q55" s="10" t="s">
+      <c r="S55" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>151</v>
       </c>
@@ -3377,26 +3862,32 @@
       <c r="D56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="S56" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>153</v>
       </c>
@@ -3409,26 +3900,32 @@
       <c r="D57" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="K57" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M57" s="10" t="s">
+      <c r="O57" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q57" s="10" t="s">
+      <c r="S57" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>154</v>
       </c>
@@ -3441,26 +3938,32 @@
       <c r="D58" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M58" s="10" t="s">
+      <c r="O58" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q58" s="10" t="s">
+      <c r="S58" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>156</v>
       </c>
@@ -3473,26 +3976,32 @@
       <c r="D59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="K59" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="O59" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q59" s="10" t="s">
+      <c r="S59" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>158</v>
       </c>
@@ -3505,26 +4014,32 @@
       <c r="D60" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="K60" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="O60" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q60" s="10" t="s">
+      <c r="S60" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>159</v>
       </c>
@@ -3537,26 +4052,32 @@
       <c r="D61" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="K61" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="O61" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q61" s="10" t="s">
+      <c r="S61" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>160</v>
       </c>
@@ -3569,26 +4090,32 @@
       <c r="D62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="K62" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="O62" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q62" s="10" t="s">
+      <c r="S62" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>51</v>
       </c>
@@ -3601,20 +4128,26 @@
       <c r="D63" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -3627,20 +4160,26 @@
       <c r="D64" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L64" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
@@ -3653,20 +4192,26 @@
       <c r="D65" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
@@ -3679,20 +4224,26 @@
       <c r="D66" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>75</v>
       </c>
@@ -3705,20 +4256,26 @@
       <c r="D67" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
@@ -3731,20 +4288,26 @@
       <c r="D68" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
@@ -3757,20 +4320,26 @@
       <c r="D69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>89</v>
       </c>
@@ -3783,20 +4352,26 @@
       <c r="D70" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -3809,20 +4384,26 @@
       <c r="D71" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>98</v>
       </c>
@@ -3835,20 +4416,26 @@
       <c r="D72" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J72" t="s">
+      <c r="L72" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>103</v>
       </c>
@@ -3861,20 +4448,26 @@
       <c r="D73" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>108</v>
       </c>
@@ -3887,20 +4480,26 @@
       <c r="D74" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="I74" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>113</v>
       </c>
@@ -3913,20 +4512,26 @@
       <c r="D75" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>118</v>
       </c>
@@ -3939,20 +4544,26 @@
       <c r="D76" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>123</v>
       </c>
@@ -3965,20 +4576,26 @@
       <c r="D77" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>127</v>
       </c>
@@ -3991,20 +4608,26 @@
       <c r="D78" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>132</v>
       </c>
@@ -4017,20 +4640,26 @@
       <c r="D79" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>137</v>
       </c>
@@ -4043,20 +4672,26 @@
       <c r="D80" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J80" t="s">
+      <c r="L80" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>142</v>
       </c>
@@ -4069,20 +4704,26 @@
       <c r="D81" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>60</v>
       </c>
@@ -4095,20 +4736,26 @@
       <c r="D82" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="I82" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
@@ -4121,20 +4768,26 @@
       <c r="D83" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="M83" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>56</v>
       </c>
@@ -4147,20 +4800,26 @@
       <c r="D84" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="M84" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>61</v>
       </c>
@@ -4173,20 +4832,26 @@
       <c r="D85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="M85" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>66</v>
       </c>
@@ -4199,20 +4864,26 @@
       <c r="D86" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="M86" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>71</v>
       </c>
@@ -4225,20 +4896,26 @@
       <c r="D87" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="M87" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>76</v>
       </c>
@@ -4251,20 +4928,26 @@
       <c r="D88" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="I88" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="M88" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>81</v>
       </c>
@@ -4277,20 +4960,26 @@
       <c r="D89" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="M89" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
@@ -4303,20 +4992,26 @@
       <c r="D90" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="M90" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -4329,20 +5024,26 @@
       <c r="D91" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="M91" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>94</v>
       </c>
@@ -4355,20 +5056,26 @@
       <c r="D92" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="M92" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>99</v>
       </c>
@@ -4381,20 +5088,26 @@
       <c r="D93" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="M93" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
@@ -4407,20 +5120,26 @@
       <c r="D94" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="M94" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>109</v>
       </c>
@@ -4433,20 +5152,26 @@
       <c r="D95" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="M95" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>114</v>
       </c>
@@ -4459,20 +5184,26 @@
       <c r="D96" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="M96" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>119</v>
       </c>
@@ -4485,20 +5216,26 @@
       <c r="D97" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="M97" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>124</v>
       </c>
@@ -4511,20 +5248,26 @@
       <c r="D98" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="M98" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>128</v>
       </c>
@@ -4537,20 +5280,26 @@
       <c r="D99" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="M99" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>133</v>
       </c>
@@ -4563,20 +5312,26 @@
       <c r="D100" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="M100" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>138</v>
       </c>
@@ -4589,20 +5344,26 @@
       <c r="D101" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="M101" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
@@ -4615,20 +5376,26 @@
       <c r="D102" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="M102" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>53</v>
       </c>
@@ -4641,20 +5408,26 @@
       <c r="D103" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>57</v>
       </c>
@@ -4667,20 +5440,26 @@
       <c r="D104" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>62</v>
       </c>
@@ -4693,20 +5472,26 @@
       <c r="D105" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>67</v>
       </c>
@@ -4719,20 +5504,26 @@
       <c r="D106" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L106" t="s">
+      <c r="N106" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>72</v>
       </c>
@@ -4745,20 +5536,26 @@
       <c r="D107" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L107" t="s">
+      <c r="N107" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>77</v>
       </c>
@@ -4771,20 +5568,26 @@
       <c r="D108" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="H108" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="I108" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L108" t="s">
+      <c r="N108" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>82</v>
       </c>
@@ -4797,20 +5600,26 @@
       <c r="D109" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="H109" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="I109" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L109" t="s">
+      <c r="N109" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>87</v>
       </c>
@@ -4823,20 +5632,26 @@
       <c r="D110" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L110" t="s">
+      <c r="N110" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>91</v>
       </c>
@@ -4849,20 +5664,26 @@
       <c r="D111" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="I111" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L111" t="s">
+      <c r="N111" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>95</v>
       </c>
@@ -4875,20 +5696,26 @@
       <c r="D112" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="I112" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L112" t="s">
+      <c r="N112" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>100</v>
       </c>
@@ -4901,20 +5728,26 @@
       <c r="D113" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="H113" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="I113" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L113" t="s">
+      <c r="N113" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>105</v>
       </c>
@@ -4927,20 +5760,26 @@
       <c r="D114" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="I114" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L114" t="s">
+      <c r="N114" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>110</v>
       </c>
@@ -4953,20 +5792,26 @@
       <c r="D115" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L115" t="s">
+      <c r="N115" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
@@ -4979,20 +5824,26 @@
       <c r="D116" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="H116" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="I116" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L116" t="s">
+      <c r="N116" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>120</v>
       </c>
@@ -5005,20 +5856,26 @@
       <c r="D117" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="I117" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L117" t="s">
+      <c r="N117" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>125</v>
       </c>
@@ -5031,20 +5888,26 @@
       <c r="D118" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L118" t="s">
+      <c r="N118" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>129</v>
       </c>
@@ -5057,20 +5920,26 @@
       <c r="D119" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L119" t="s">
+      <c r="N119" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>134</v>
       </c>
@@ -5083,20 +5952,26 @@
       <c r="D120" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="I120" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L120" t="s">
+      <c r="N120" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>139</v>
       </c>
@@ -5109,20 +5984,26 @@
       <c r="D121" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L121" t="s">
+      <c r="N121" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>144</v>
       </c>
@@ -5135,23 +6016,29 @@
       <c r="D122" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="H122" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="I122" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L122" t="s">
+      <c r="N122" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
